--- a/biology/Zoologie/Hamster_de_Roumanie/Hamster_de_Roumanie.xlsx
+++ b/biology/Zoologie/Hamster_de_Roumanie/Hamster_de_Roumanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesocricetus newtoni
-Le Hamster de Roumanie ou Hamster de Newton (Mesocricetus newtoni)[1], est une espèce de Hamsters de la famille des Cricetidae. Il est aussi appelé Hamster roumain, Hamster de la Dobroudja ou Hamster doré de Roumanie[1]
+Le Hamster de Roumanie ou Hamster de Newton (Mesocricetus newtoni), est une espèce de Hamsters de la famille des Cricetidae. Il est aussi appelé Hamster roumain, Hamster de la Dobroudja ou Hamster doré de Roumanie
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Habitat d'origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le retrouve uniquement à l'est du Danube; dans le sud-est de la Roumanie et le nord de la Bulgarie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le retrouve uniquement à l'est du Danube; dans le sud-est de la Roumanie et le nord de la Bulgarie.
 </t>
         </is>
       </c>
